--- a/REFramework Template/Data/Config.xlsx
+++ b/REFramework Template/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Revature\Belt-Knight-Liner-Rouse-Project3\REFramework Template\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A66F968-440B-4D38-92F1-9A6754674ADC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1863DEE-C8EF-4E68-B1B6-9C4E9C7E959D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5628" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5628" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="65">
   <si>
     <t>Name</t>
   </si>
@@ -214,6 +214,9 @@
   </si>
   <si>
     <t>OrderMaster</t>
+  </si>
+  <si>
+    <t>April</t>
   </si>
 </sst>
 </file>
@@ -572,7 +575,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z997"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -639,16 +644,86 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12">
+        <v>123456789</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14">
+        <v>2020</v>
+      </c>
+    </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2853,8 +2928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2897,83 +2972,16 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B8">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B9">
-        <v>123456789</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B10">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>58</v>
-      </c>
-    </row>
+    <row r="2" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
